--- a/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10149</t>
+          <t>10142</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>29411567.74</t>
+          <t>29239254.74</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>6725</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>30627905.08</t>
+          <t>30592729.83</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
